--- a/biology/Histoire de la zoologie et de la botanique/Antonina_Pojarkova/Antonina_Pojarkova.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antonina_Pojarkova/Antonina_Pojarkova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonina Ivanovna Pojarkova (1897-1980) est une exploratrice, botaniste et professeur soviétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a réalisé d'importantes explorations dans le Caucase et dans l'Extrême-Orient soviétique.
 </t>
@@ -542,7 +556,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Flora murmanskoj oblasti. [La Flore de l'oblast de Mourmansk] Vypusk IV - Moscou ; Leningrad : Izdatelʹstvo Akademii nauk SSSR, 1959</t>
         </is>
@@ -572,7 +588,9 @@
           <t>Espèces qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un genre de la famille des Astéracées Pojarkovia lui a été dédié ainsi que les espèces suivantes :
 Cotoneaster pojarkovae Zakirov - Rosacée d'Asie centrale (Pamir-Alaï; Thian Shan)
